--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1376139.702866104</v>
+        <v>1372383.313156317</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3853325.332255974</v>
+        <v>3853325.332255973</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583095</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F11" t="n">
-        <v>410.537335659906</v>
+        <v>95.90561902386096</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723393</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H11" t="n">
-        <v>90.95707608876945</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806006</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.1518428283648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>151.1677932355143</v>
       </c>
       <c r="E13" t="n">
-        <v>4.36159914468055</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F13" t="n">
-        <v>161.8885638628831</v>
+        <v>40.54257752110893</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313618</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758296</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.7733322206492</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V13" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>296.2025415595961</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806006</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U14" t="n">
-        <v>157.6562377956115</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.1518428283648</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="15">
@@ -1776,10 +1776,10 @@
         <v>155.0090040767919</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8885638628831</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486285</v>
+        <v>72.61572609023844</v>
       </c>
       <c r="H16" t="n">
         <v>117.969200379499</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758296</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U16" t="n">
-        <v>120.0786380203131</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583095</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F17" t="n">
-        <v>410.537335659906</v>
+        <v>206.6091773683078</v>
       </c>
       <c r="G17" t="n">
-        <v>206.2371187840069</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065504</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806006</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>155.0090040767919</v>
       </c>
       <c r="F19" t="n">
-        <v>60.65407299390792</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>129.9308534758296</v>
       </c>
       <c r="T19" t="n">
-        <v>226.7733322206492</v>
+        <v>125.5388413516741</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583095</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F20" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065504</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>242.2801413539891</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080987</v>
+        <v>369.8850901192736</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>157.7846747666291</v>
       </c>
       <c r="D22" t="n">
-        <v>54.89995749470248</v>
+        <v>49.40640691495022</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>161.8885638628831</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486285</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>226.7733322206492</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>71.34679874736882</v>
       </c>
       <c r="D23" t="n">
-        <v>71.57116975497125</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583095</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.537335659906</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723393</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065504</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806006</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U23" t="n">
-        <v>243.4285649287229</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>161.8885638628831</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486285</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H25" t="n">
-        <v>117.969200379499</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313617</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3825250454861</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>339.6304981700645</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317441</v>
+        <v>275.6027656317437</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>182.3166000313603</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>330.4106786359219</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>239.8247518556271</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317441</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>264.9363082177101</v>
       </c>
       <c r="C32" t="n">
-        <v>149.6553165572385</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3088,16 +3088,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317964</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>353.3165528696622</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>215.2165613009018</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>29.59745405728568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3508,13 +3508,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>146.6753150960239</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>340.6710145143642</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>49.34995949258575</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681869</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>143.987007526034</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>200.8605659702265</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>55.9668410237007</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>113.6478537517762</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>105.5188043066311</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.1917281224253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>96.26811891357563</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>245.9476829423878</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1360.677495265444</v>
+        <v>950.9918460484597</v>
       </c>
       <c r="C11" t="n">
-        <v>1360.677495265444</v>
+        <v>950.9918460484597</v>
       </c>
       <c r="D11" t="n">
-        <v>1360.677495265444</v>
+        <v>950.9918460484597</v>
       </c>
       <c r="E11" t="n">
-        <v>940.0860025802829</v>
+        <v>530.4003533632986</v>
       </c>
       <c r="F11" t="n">
-        <v>525.4018251460343</v>
+        <v>433.5259907129339</v>
       </c>
       <c r="G11" t="n">
-        <v>139.0823859820552</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.739578073392</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="U11" t="n">
-        <v>2161.739578073392</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="V11" t="n">
-        <v>2161.739578073392</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="W11" t="n">
-        <v>2161.739578073392</v>
+        <v>1770.06737564097</v>
       </c>
       <c r="X11" t="n">
-        <v>1755.780366809247</v>
+        <v>1364.108164376824</v>
       </c>
       <c r="Y11" t="n">
-        <v>1360.677495265444</v>
+        <v>1364.108164376824</v>
       </c>
     </row>
     <row r="12">
@@ -5099,31 +5099,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.1212435417256</v>
+        <v>708.3645298809475</v>
       </c>
       <c r="C13" t="n">
-        <v>417.7427841814942</v>
+        <v>548.9860705207161</v>
       </c>
       <c r="D13" t="n">
-        <v>265.0480435395606</v>
+        <v>396.2913298787824</v>
       </c>
       <c r="E13" t="n">
-        <v>260.6423878378631</v>
+        <v>239.7165782860633</v>
       </c>
       <c r="F13" t="n">
-        <v>97.11858595616299</v>
+        <v>198.7644797798927</v>
       </c>
       <c r="G13" t="n">
-        <v>97.11858595616299</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>97.11858595616299</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>756.0122647025504</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1340.193340120865</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.692251924755</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.020319168465</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.816939373752</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V13" t="n">
-        <v>1461.044683400726</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.201531143561</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X13" t="n">
-        <v>969.993028633517</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y13" t="n">
-        <v>755.756610104169</v>
+        <v>886.999896443391</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.20655154895473</v>
+        <v>346.4010379727891</v>
       </c>
       <c r="C14" t="n">
-        <v>47.20655154895473</v>
+        <v>346.4010379727891</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895473</v>
+        <v>346.4010379727891</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.739578073392</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U14" t="n">
-        <v>2002.49085302732</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="V14" t="n">
-        <v>1653.05715511769</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="W14" t="n">
-        <v>1261.384952685267</v>
+        <v>1147.463120780738</v>
       </c>
       <c r="X14" t="n">
-        <v>855.4257414211216</v>
+        <v>741.5039095165921</v>
       </c>
       <c r="Y14" t="n">
-        <v>460.3228698773188</v>
+        <v>346.4010379727891</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.097041720617</v>
+        <v>708.3645298809475</v>
       </c>
       <c r="C16" t="n">
-        <v>790.7185823603857</v>
+        <v>548.9860705207161</v>
       </c>
       <c r="D16" t="n">
-        <v>638.0238417184521</v>
+        <v>396.2913298787824</v>
       </c>
       <c r="E16" t="n">
-        <v>481.4490901257331</v>
+        <v>239.7165782860633</v>
       </c>
       <c r="F16" t="n">
-        <v>317.925288244033</v>
+        <v>239.7165782860633</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3673600130951</v>
+        <v>166.3673600130952</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L16" t="n">
-        <v>733.4227107706873</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150536</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2229.084291108515</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U16" t="n">
-        <v>2107.792737552643</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V16" t="n">
-        <v>1834.020481579617</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W16" t="n">
-        <v>1575.177329322452</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X16" t="n">
-        <v>1342.968826812408</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y16" t="n">
-        <v>1128.73240828306</v>
+        <v>886.999896443391</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1770.067375640969</v>
+        <v>1524.179936319027</v>
       </c>
       <c r="C17" t="n">
-        <v>1770.067375640969</v>
+        <v>1099.220715658994</v>
       </c>
       <c r="D17" t="n">
-        <v>1347.340842971957</v>
+        <v>676.4941829899824</v>
       </c>
       <c r="E17" t="n">
-        <v>926.7493502867965</v>
+        <v>255.9026903048212</v>
       </c>
       <c r="F17" t="n">
-        <v>512.0651728525479</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485006</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2161.739578073392</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="U17" t="n">
-        <v>2161.739578073392</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V17" t="n">
-        <v>2161.739578073392</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="W17" t="n">
-        <v>1770.067375640969</v>
+        <v>1524.179936319027</v>
       </c>
       <c r="X17" t="n">
-        <v>1770.067375640969</v>
+        <v>1524.179936319027</v>
       </c>
       <c r="Y17" t="n">
-        <v>1770.067375640969</v>
+        <v>1524.179936319027</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.1212435417256</v>
+        <v>679.3783050255391</v>
       </c>
       <c r="C19" t="n">
-        <v>417.7427841814942</v>
+        <v>519.9998456653077</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0480435395606</v>
+        <v>367.305105023374</v>
       </c>
       <c r="E19" t="n">
-        <v>108.4732919468415</v>
+        <v>210.7303534306549</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706873</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2229.084291108515</v>
       </c>
       <c r="T19" t="n">
-        <v>2000.020319168465</v>
+        <v>2102.277380652279</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.816939373752</v>
+        <v>1837.074000857565</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.044683400726</v>
+        <v>1563.301744884539</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.201531143561</v>
+        <v>1304.458592627375</v>
       </c>
       <c r="X19" t="n">
-        <v>969.993028633517</v>
+        <v>1072.250090117331</v>
       </c>
       <c r="Y19" t="n">
-        <v>755.756610104169</v>
+        <v>858.0136715879826</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1525.339960131889</v>
+        <v>1986.706274296956</v>
       </c>
       <c r="C20" t="n">
-        <v>1525.339960131889</v>
+        <v>1561.747053636923</v>
       </c>
       <c r="D20" t="n">
-        <v>1525.339960131889</v>
+        <v>1139.020520967911</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.748467446728</v>
+        <v>718.4290282827494</v>
       </c>
       <c r="F20" t="n">
-        <v>690.0642900124797</v>
+        <v>303.7448508485007</v>
       </c>
       <c r="G20" t="n">
-        <v>303.7448508485006</v>
+        <v>303.7448508485007</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
@@ -5755,19 +5755,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2161.739578073392</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>1917.012162564312</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>1917.012162564312</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>1525.339960131889</v>
+        <v>1986.706274296956</v>
       </c>
       <c r="X20" t="n">
-        <v>1525.339960131889</v>
+        <v>1986.706274296956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1525.339960131889</v>
+        <v>1986.706274296956</v>
       </c>
     </row>
     <row r="21">
@@ -5810,31 +5810,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.1212435417256</v>
+        <v>577.1212435417257</v>
       </c>
       <c r="C22" t="n">
         <v>417.7427841814942</v>
       </c>
       <c r="D22" t="n">
-        <v>362.2882816615927</v>
+        <v>367.8373226512415</v>
       </c>
       <c r="E22" t="n">
-        <v>362.2882816615927</v>
+        <v>367.8373226512415</v>
       </c>
       <c r="F22" t="n">
-        <v>198.7644797798926</v>
+        <v>367.8373226512415</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>216.2793944203035</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>97.11858595616306</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,16 +5919,16 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N22" t="n">
-        <v>1399.801244395024</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1925.918495046426</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5952,10 +5952,10 @@
         <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>969.993028633517</v>
+        <v>969.9930286335173</v>
       </c>
       <c r="Y22" t="n">
-        <v>755.756610104169</v>
+        <v>755.7566101041691</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1606.264434925825</v>
+        <v>770.7621274249992</v>
       </c>
       <c r="C23" t="n">
-        <v>1606.264434925825</v>
+        <v>698.6946539428085</v>
       </c>
       <c r="D23" t="n">
-        <v>1533.970324062218</v>
+        <v>698.6946539428085</v>
       </c>
       <c r="E23" t="n">
-        <v>1113.378831377057</v>
+        <v>698.6946539428085</v>
       </c>
       <c r="F23" t="n">
-        <v>698.6946539428083</v>
+        <v>698.6946539428085</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788292</v>
+        <v>312.3752147788293</v>
       </c>
       <c r="H23" t="n">
-        <v>55.8369154792833</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="I23" t="n">
         <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>707.5714735600092</v>
+        <v>538.4174088069529</v>
       </c>
       <c r="K23" t="n">
-        <v>943.8431239392301</v>
+        <v>774.6890591861739</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.95899880313</v>
+        <v>1067.804934050075</v>
       </c>
       <c r="M23" t="n">
-        <v>1563.106886971918</v>
+        <v>1393.952822218862</v>
       </c>
       <c r="N23" t="n">
-        <v>1894.532188948395</v>
+        <v>1725.378124195339</v>
       </c>
       <c r="O23" t="n">
-        <v>2207.487703489688</v>
+        <v>2038.333638736632</v>
       </c>
       <c r="P23" t="n">
-        <v>2474.587994668957</v>
+        <v>2305.433929915901</v>
       </c>
       <c r="Q23" t="n">
-        <v>2675.169189680024</v>
+        <v>2506.015124926968</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964165</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S23" t="n">
-        <v>2791.845773964165</v>
+        <v>2764.562656335506</v>
       </c>
       <c r="T23" t="n">
-        <v>2593.257774589821</v>
+        <v>2565.974656961162</v>
       </c>
       <c r="U23" t="n">
-        <v>2347.370335267878</v>
+        <v>2320.087217639219</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.936637358248</v>
+        <v>1970.65351972959</v>
       </c>
       <c r="W23" t="n">
-        <v>1606.264434925825</v>
+        <v>1578.981317297166</v>
       </c>
       <c r="X23" t="n">
-        <v>1606.264434925825</v>
+        <v>1578.981317297166</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.264434925825</v>
+        <v>1183.878445753363</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>172.1506659230302</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268704</v>
+        <v>87.77956551268707</v>
       </c>
       <c r="H24" t="n">
-        <v>55.8369154792833</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075969</v>
+        <v>90.05365165075932</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972268</v>
+        <v>183.9469909972265</v>
       </c>
       <c r="K24" t="n">
-        <v>344.425663051397</v>
+        <v>344.4256630513967</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2090419264192</v>
+        <v>560.209041926419</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291167</v>
+        <v>812.0180672291165</v>
       </c>
       <c r="N24" t="n">
         <v>1070.491728150437</v>
@@ -6126,10 +6126,10 @@
         <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979224</v>
+        <v>849.2609806979227</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559889</v>
+        <v>696.5662400559891</v>
       </c>
       <c r="E25" t="n">
         <v>539.9914884632699</v>
@@ -6138,61 +6138,61 @@
         <v>376.4676865815698</v>
       </c>
       <c r="G25" t="n">
-        <v>224.909758350632</v>
+        <v>224.9097583506321</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864915</v>
+        <v>105.7489498864916</v>
       </c>
       <c r="I25" t="n">
-        <v>55.8369154792833</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="J25" t="n">
         <v>201.3222643461563</v>
       </c>
       <c r="K25" t="n">
-        <v>572.88081948485</v>
+        <v>298.1223649137145</v>
       </c>
       <c r="L25" t="n">
-        <v>696.751621103148</v>
+        <v>840.2030482999735</v>
       </c>
       <c r="M25" t="n">
-        <v>1286.83988062259</v>
+        <v>981.945839509308</v>
       </c>
       <c r="N25" t="n">
-        <v>1856.597595584125</v>
+        <v>1551.703554470842</v>
       </c>
       <c r="O25" t="n">
-        <v>2394.032726157668</v>
+        <v>2089.138685044386</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.41463519241</v>
+        <v>2537.414635192411</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287397</v>
+        <v>2775.374681287398</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964165</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624943</v>
+        <v>2660.602487624944</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684893</v>
+        <v>2431.538515684894</v>
       </c>
       <c r="U25" t="n">
         <v>2166.33513589018</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917154</v>
+        <v>1892.562879917155</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659989</v>
+        <v>1633.71972765999</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149945</v>
+        <v>1401.511225149946</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620597</v>
+        <v>1187.274806620598</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2371.942604203337</v>
+        <v>1361.792292147884</v>
       </c>
       <c r="C26" t="n">
-        <v>1933.800131386761</v>
+        <v>923.6498193313078</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.739022124069</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F26" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H26" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I26" t="n">
         <v>131.0725551661405</v>
@@ -6229,7 +6229,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>960.2456682417246</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
         <v>1253.361543105625</v>
@@ -6247,31 +6247,31 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2707.7995967108</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R26" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2734.559554269511</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.942604203337</v>
+        <v>2119.704982887246</v>
       </c>
       <c r="W26" t="n">
-        <v>2371.942604203337</v>
+        <v>2119.704982887246</v>
       </c>
       <c r="X26" t="n">
-        <v>2371.942604203337</v>
+        <v>1700.562519466557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2371.942604203337</v>
+        <v>1700.562519466557</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H27" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I27" t="n">
         <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
         <v>348.4613524870733</v>
@@ -6369,10 +6369,10 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6381,7 +6381,7 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J28" t="n">
         <v>205.3579537818329</v>
@@ -6393,28 +6393,28 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1709.085451826228</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N28" t="n">
-        <v>2173.157275480454</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
         <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R28" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S28" t="n">
         <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.956483155638</v>
+        <v>2606.956483155637</v>
       </c>
       <c r="U28" t="n">
         <v>2328.569851204381</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1347.029774383136</v>
+        <v>1359.657252164034</v>
       </c>
       <c r="C29" t="n">
-        <v>1347.029774383136</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.029774383136</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E29" t="n">
-        <v>913.2550295414312</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495993</v>
@@ -6463,52 +6463,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>723.9740178625037</v>
+        <v>494.5803476899987</v>
       </c>
       <c r="K29" t="n">
-        <v>976.4735309700047</v>
+        <v>730.8519980692197</v>
       </c>
       <c r="L29" t="n">
-        <v>1269.589405833905</v>
+        <v>1023.96787293312</v>
       </c>
       <c r="M29" t="n">
-        <v>1595.737294002692</v>
+        <v>1764.891358755749</v>
       </c>
       <c r="N29" t="n">
-        <v>1927.16259597917</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O29" t="n">
-        <v>2240.118110520462</v>
+        <v>2409.272175273519</v>
       </c>
       <c r="P29" t="n">
-        <v>2507.218401699732</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.799596710799</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747996</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747996</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2522.788302738623</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V29" t="n">
-        <v>2160.171352672449</v>
+        <v>2119.704982887246</v>
       </c>
       <c r="W29" t="n">
-        <v>1755.315898083483</v>
+        <v>1785.956822648941</v>
       </c>
       <c r="X29" t="n">
-        <v>1755.315898083483</v>
+        <v>1785.956822648941</v>
       </c>
       <c r="Y29" t="n">
-        <v>1347.029774383136</v>
+        <v>1785.956822648941</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>59.87260491495993</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329034</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870736</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620959</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647932</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,16 +6600,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J31" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>219.7541432517691</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>761.8348266380279</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.92308615747</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119005</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692548</v>
+        <v>2398.068415593345</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>880.2638341130254</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>729.0968476915723</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>729.0968476915723</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>729.0968476915723</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495993</v>
@@ -6700,28 +6700,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339264</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2055.735851518534</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2796.659337341162</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747996</v>
@@ -6736,16 +6736,16 @@
         <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2119.704982887246</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="W32" t="n">
-        <v>1714.84952829828</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="X32" t="n">
-        <v>1714.84952829828</v>
+        <v>2063.179469532731</v>
       </c>
       <c r="Y32" t="n">
-        <v>1306.563404597933</v>
+        <v>2063.179469532731</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>59.87260491495993</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643631</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329034</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870736</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620959</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647932</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6837,16 +6837,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J34" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7541432517691</v>
+        <v>399.0682623577786</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380279</v>
+        <v>941.1489457440376</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.92308615747</v>
+        <v>1531.23720526348</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119005</v>
+        <v>2100.994920225015</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692548</v>
+        <v>2638.430050798558</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6888,22 +6888,22 @@
         <v>2849.203707252231</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.956483155638</v>
+        <v>2606.956483155637</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.614343074811</v>
+        <v>2041.61434307481</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X34" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1308.351417301975</v>
+        <v>1270.101860895376</v>
       </c>
       <c r="C35" t="n">
-        <v>1308.351417301975</v>
+        <v>831.9593880787997</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.351417301975</v>
+        <v>831.9593880787997</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>831.9593880787997</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>404.0919584880075</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447736</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447736</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447736</v>
+        <v>1696.401431380284</v>
       </c>
       <c r="X35" t="n">
-        <v>2142.937111487229</v>
+        <v>1696.401431380284</v>
       </c>
       <c r="Y35" t="n">
-        <v>1734.650987786883</v>
+        <v>1696.401431380284</v>
       </c>
     </row>
     <row r="36">
@@ -6995,46 +6995,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268366</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364612</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>241.8441501761188</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895472</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>588.0160255186809</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>718.6204178572102</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818744</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2016.215441574641</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.072968758064</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D38" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
         <v>716.4307943255671</v>
@@ -7168,7 +7168,7 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7180,13 +7180,13 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
         <v>1775.969506973259</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447736</v>
+        <v>2212.170693512359</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447736</v>
+        <v>1953.100002033873</v>
       </c>
       <c r="V38" t="n">
-        <v>2016.215441574641</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.215441574641</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X38" t="n">
-        <v>2016.215441574641</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y38" t="n">
-        <v>2016.215441574641</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851411</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268366</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364612</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>116.635590151373</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>488.1941452900667</v>
       </c>
       <c r="L40" t="n">
-        <v>744.9929992049549</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M40" t="n">
-        <v>992.686446150523</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954412</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.32005419002</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041283</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1346.991198798029</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C41" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662533</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662533</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.419785919064</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X41" t="n">
-        <v>1755.277322498375</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="Y41" t="n">
-        <v>1346.991198798029</v>
+        <v>919.1237692072363</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>794.0697878044699</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C43" t="n">
-        <v>621.5080762876948</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D43" t="n">
-        <v>621.5080762876948</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E43" t="n">
-        <v>451.7500725384321</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2303.795414797534</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X43" t="n">
-        <v>1021.489458490362</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y43" t="n">
-        <v>794.0697878044699</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1754.536245353315</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="C44" t="n">
-        <v>1316.393772536738</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D44" t="n">
-        <v>880.4839877111824</v>
+        <v>1015.433376796231</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>581.6586319545258</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>153.7912023637336</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184047</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>2060.790516184047</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W44" t="n">
-        <v>2060.790516184047</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X44" t="n">
-        <v>2060.790516184047</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y44" t="n">
-        <v>1754.536245353315</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>896.8524940391951</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C46" t="n">
-        <v>724.29078252242</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239428</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>321.1541297423254</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>144.4470757040816</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>144.4470757040816</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2360.327577447736</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>2081.940945496479</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1833.50894252437</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.482538110662</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1316.090783444074</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y46" t="n">
-        <v>1088.671112758182</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
   </sheetData>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>68.57677528255658</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>45.75904403825052</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825052</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9567,16 +9567,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>80.0089772241131</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>427.1594268546465</v>
+        <v>256.2967351848927</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>11.25090795030826</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>43.04328571420001</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.39178053361684</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10041,13 +10041,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>339.9726382326633</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>207.9404214953666</v>
       </c>
       <c r="K29" t="n">
-        <v>16.39178053361627</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>418.9652501553958</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>4.217953603098806</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>242.7895305103161</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490519</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R32" t="n">
-        <v>81.10537790171065</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603098806</v>
+        <v>97.88909899837125</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>263.8716243249363</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>10.62967161639912</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>118.2717723303421</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464593</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1920849464593</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>314.6317166360452</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>163.0158402177809</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237274</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287229</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.6474049321113</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>121.3459863417742</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486285</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.969200379499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583095</v>
+        <v>120.1830361987135</v>
       </c>
       <c r="F14" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723393</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065504</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237273</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>85.77232713311145</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.42662285839012</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313617</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206492</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.4727079764531</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450804</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>203.9281582915984</v>
       </c>
       <c r="G17" t="n">
-        <v>176.2191259883324</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237273</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287229</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.1518428283648</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>101.2344908689751</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486285</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H19" t="n">
         <v>117.969200379499</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313617</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>101.2344908689752</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450804</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423216</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237274</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U20" t="n">
-        <v>1.148423574733783</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>17.87039028882526</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.1518428283648</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>96.26783574081179</v>
+        <v>101.7613863205641</v>
       </c>
       <c r="E22" t="n">
         <v>155.0090040767919</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.969200379499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313618</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534326</v>
+        <v>349.3628297060639</v>
       </c>
       <c r="D23" t="n">
-        <v>346.9280975873504</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237274</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.1518428283648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>86.6540497345726</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>91.92018880723543</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.272155263524</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>70.39622140715511</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>157.1002665623486</v>
       </c>
       <c r="C32" t="n">
-        <v>284.1057315311724</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>42.19111153765539</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>199.7344774855806</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.3425294405756</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>62.97822391955503</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>18.3197660511475</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>114.8692533779068</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>111.3145178010427</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>256.819892517043</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>214.0904728162559</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>87.01543208710711</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>129.2899833681455</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>289.9888601006865</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.0115343409178</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>34.75250110090163</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>38.13827010588608</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>345717.4275662296</v>
+        <v>345717.4275662297</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>271285.0188071136</v>
+        <v>271285.0188071137</v>
       </c>
     </row>
     <row r="14">
@@ -26325,7 +26325,7 @@
         <v>317146.2479258743</v>
       </c>
       <c r="F2" t="n">
-        <v>317146.2479258744</v>
+        <v>317146.2479258743</v>
       </c>
       <c r="G2" t="n">
         <v>317146.2479258743</v>
@@ -26334,28 +26334,28 @@
         <v>317146.2479258743</v>
       </c>
       <c r="I2" t="n">
-        <v>358350.662204167</v>
+        <v>358350.6622041671</v>
       </c>
       <c r="J2" t="n">
         <v>359337.6105569641</v>
       </c>
       <c r="K2" t="n">
-        <v>359337.610556964</v>
+        <v>359337.6105569639</v>
       </c>
       <c r="L2" t="n">
         <v>359337.6105569639</v>
       </c>
       <c r="M2" t="n">
-        <v>298865.3854715528</v>
+        <v>298865.3854715529</v>
       </c>
       <c r="N2" t="n">
         <v>298865.3854715528</v>
       </c>
       <c r="O2" t="n">
+        <v>298865.385471553</v>
+      </c>
+      <c r="P2" t="n">
         <v>298865.3854715529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>298865.3854715528</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396128</v>
+        <v>28687.43758396132</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385224</v>
+        <v>13198.92408385215</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107595.3788647969</v>
+        <v>107595.378864797</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>31059.95241910718</v>
+        <v>31059.95241910713</v>
       </c>
       <c r="F4" t="n">
-        <v>31059.95241910718</v>
+        <v>31059.95241910712</v>
       </c>
       <c r="G4" t="n">
-        <v>31059.95241910718</v>
+        <v>31059.95241910713</v>
       </c>
       <c r="H4" t="n">
-        <v>31059.95241910718</v>
+        <v>31059.95241910713</v>
       </c>
       <c r="I4" t="n">
-        <v>55465.87713621814</v>
+        <v>55465.87713621813</v>
       </c>
       <c r="J4" t="n">
-        <v>55895.18041333462</v>
+        <v>55895.1804133346</v>
       </c>
       <c r="K4" t="n">
-        <v>55895.18041333459</v>
+        <v>55895.18041333458</v>
       </c>
       <c r="L4" t="n">
-        <v>55895.18041333459</v>
+        <v>55895.18041333461</v>
       </c>
       <c r="M4" t="n">
+        <v>20076.67410129963</v>
+      </c>
+      <c r="N4" t="n">
         <v>20076.67410129961</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>20076.67410129961</v>
+      </c>
+      <c r="P4" t="n">
         <v>20076.67410129962</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20076.67410129962</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20076.67410129964</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="G5" t="n">
         <v>47148.3010069308</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398051</v>
+        <v>53707.37759398052</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
       </c>
       <c r="K5" t="n">
-        <v>55677.28176780176</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="L5" t="n">
-        <v>55677.28176780176</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="E6" t="n">
-        <v>-322638.342198822</v>
+        <v>-323144.1151092694</v>
       </c>
       <c r="F6" t="n">
-        <v>238937.9944998365</v>
+        <v>238432.2215893889</v>
       </c>
       <c r="G6" t="n">
-        <v>238937.9944998363</v>
+        <v>238432.221589389</v>
       </c>
       <c r="H6" t="n">
-        <v>238937.9944998363</v>
+        <v>238432.221589389</v>
       </c>
       <c r="I6" t="n">
-        <v>220489.9698900071</v>
+        <v>220092.6296487132</v>
       </c>
       <c r="J6" t="n">
-        <v>234566.2242919754</v>
+        <v>234171.4812831889</v>
       </c>
       <c r="K6" t="n">
-        <v>247765.1483758277</v>
+        <v>247370.405367041</v>
       </c>
       <c r="L6" t="n">
-        <v>247765.1483758276</v>
+        <v>247370.4053670409</v>
       </c>
       <c r="M6" t="n">
-        <v>125142.2512958185</v>
+        <v>124588.3708525965</v>
       </c>
       <c r="N6" t="n">
-        <v>232737.6301606154</v>
+        <v>232183.7497173935</v>
       </c>
       <c r="O6" t="n">
-        <v>232737.6301606155</v>
+        <v>232183.7497173937</v>
       </c>
       <c r="P6" t="n">
-        <v>232737.6301606154</v>
+        <v>232183.7497173935</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910412</v>
+        <v>697.9614434910415</v>
       </c>
       <c r="J4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="K4" t="n">
         <v>748.4075614369991</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369991</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291071</v>
+        <v>107.8795491291072</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595801</v>
+        <v>50.44611794595767</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868689</v>
+        <v>431.7562272868694</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497826</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="26">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31931,28 +31931,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>193.6987971192211</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>170.8810658749151</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>171.0631211972095</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35889,10 +35889,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>202.7781168554916</v>
       </c>
       <c r="L19" t="n">
-        <v>170.8810658749151</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
@@ -36287,22 +36287,22 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>181.7959026561166</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>586.3985937672176</v>
+        <v>415.5359020974637</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916808</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36451,7 +36451,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36518,28 +36518,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>143.1745365750854</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>144.8302111462035</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36615,7 +36615,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>218.999048221564</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36761,22 +36761,22 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>468.7594178325517</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>367.1795884079376</v>
       </c>
       <c r="K29" t="n">
-        <v>255.0500132399</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>748.407561436999</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36855,7 +36855,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562362</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36925,7 +36925,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9958329642687</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37007,13 +37007,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485101</v>
+        <v>344.5764559423196</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,16 +37083,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.407561436999</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R32" t="n">
-        <v>198.9605135422566</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916805</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37159,10 +37159,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37171,7 +37171,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642687</v>
+        <v>195.6669783595412</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
@@ -37244,13 +37244,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37408,7 +37408,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>388.9936461616009</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>70.1303420226447</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>250.1954009551192</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
@@ -37721,10 +37721,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J45" t="n">
-        <v>94.8417569156242</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M46" t="n">
-        <v>309.1157135712365</v>
+        <v>142.5533002411767</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
